--- a/API/wwwroot/docs/NhatKyGuiEmail/DANH_SACH_NHAT_KY_GUI_EMAIL.xlsx
+++ b/API/wwwroot/docs/NhatKyGuiEmail/DANH_SACH_NHAT_KY_GUI_EMAIL.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\NhatKyGuiEmail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\bill-back-end\API\wwwroot\docs\NhatKyGuiEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="990" yWindow="990" windowWidth="15000" windowHeight="9990"/>
+    <workbookView xWindow="996" yWindow="996" windowWidth="15000" windowHeight="9996"/>
   </bookViews>
   <sheets>
     <sheet name="HOADON-BACHKHOA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>&lt;DonVi&gt;</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Tiêu đề Email</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
   </si>
 </sst>
 </file>
@@ -519,45 +522,45 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="27" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="31.88671875" style="3" customWidth="1"/>
     <col min="11" max="11" width="31" style="3" customWidth="1"/>
-    <col min="12" max="12" width="31.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="3"/>
+    <col min="12" max="13" width="31.88671875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -569,8 +572,9 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -607,8 +611,11 @@
       <c r="L6" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="M6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -621,8 +628,9 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -657,6 +665,9 @@
         <v>3</v>
       </c>
       <c r="L8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/API/wwwroot/docs/NhatKyGuiEmail/DANH_SACH_NHAT_KY_GUI_EMAIL.xlsx
+++ b/API/wwwroot/docs/NhatKyGuiEmail/DANH_SACH_NHAT_KY_GUI_EMAIL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\bill-back-end\API\wwwroot\docs\NhatKyGuiEmail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\bill-tmp\bill-back-end\API\wwwroot\docs\NhatKyGuiEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -524,8 +524,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,13 +535,14 @@
     <col min="3" max="3" width="23.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="31" style="3" customWidth="1"/>
-    <col min="12" max="13" width="31.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="31" style="3" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" style="3" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -591,28 +592,28 @@
         <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -621,8 +622,8 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>

--- a/API/wwwroot/docs/NhatKyGuiEmail/DANH_SACH_NHAT_KY_GUI_EMAIL.xlsx
+++ b/API/wwwroot/docs/NhatKyGuiEmail/DANH_SACH_NHAT_KY_GUI_EMAIL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\bill-tmp\bill-back-end\API\wwwroot\docs\NhatKyGuiEmail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\bill-back-end\API\wwwroot\docs\NhatKyGuiEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="HOADON-BACHKHOA" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'HOADON-BACHKHOA'!$6:$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -48,9 +51,6 @@
     <t>Ngày hóa đơn</t>
   </si>
   <si>
-    <t>Trạng thái gửi hóa đơn</t>
-  </si>
-  <si>
     <t>Ngày gửi</t>
   </si>
   <si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t>Trạng thái gửi email</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -589,31 +592,31 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -673,8 +676,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.39370078740157483" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.23622047244094491"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094499" right="0.196850393700787" top="0.39370078740157499" bottom="0.511811023622047" header="0.31496062992126" footer="0.23622047244094499"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Times New Roman,Regular"Trang &amp;P/&amp;N</oddFooter>
   </headerFooter>

--- a/API/wwwroot/docs/NhatKyGuiEmail/DANH_SACH_NHAT_KY_GUI_EMAIL.xlsx
+++ b/API/wwwroot/docs/NhatKyGuiEmail/DANH_SACH_NHAT_KY_GUI_EMAIL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\bill-back-end\API\wwwroot\docs\NhatKyGuiEmail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pmbk\bills\bill-back-end\API\wwwroot\docs\NhatKyGuiEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,15 +537,14 @@
     <col min="2" max="2" width="22.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="31.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="31" style="3" customWidth="1"/>
-    <col min="13" max="13" width="31.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27" style="3" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" style="3" customWidth="1"/>
+    <col min="12" max="13" width="31.88671875" style="3" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -592,28 +591,28 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>15</v>
@@ -626,8 +625,8 @@
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
